--- a/note_attachments/07-分布式架构&微服务架构/07-Dubbo/01-Dubbo笔记-相关表格.xlsx
+++ b/note_attachments/07-分布式架构&微服务架构/07-Dubbo/01-Dubbo笔记-相关表格.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
   <si>
     <t>------------</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,13 +103,7 @@
     <t>服务版本，建议使用两位数字版本，如：1.0，通常在接口不兼容时版本号才需要升级</t>
   </si>
   <si>
-    <t>rotocol</t>
-  </si>
-  <si>
     <t>配置关联</t>
-  </si>
-  <si>
-    <t>使用指定的协议暴露服务，在多协议时使用，值为&lt;dubbo:protocol&gt;的id属性，多个协议ID用逗号分隔</t>
   </si>
   <si>
     <t>2.0.5以上版本</t>
@@ -439,6 +433,50 @@
   </si>
   <si>
     <t>**必填**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能调优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程服务调用超时时间(毫秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.0+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.5+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用指定的协议暴露服务，在多协议时使用，值为`&lt;dubbo:protocol&gt;`的id属性，多个协议ID用逗号分隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +664,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -905,17 +943,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="9" width="16.375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="9" style="4"/>
     <col min="12" max="16384" width="9" style="1"/>
@@ -985,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K7" si="0">$L$1&amp;B3&amp;$L$1&amp;C3&amp;$L$1&amp;D3&amp;$L$1&amp;E3&amp;$L$1&amp;F3&amp;$L$1&amp;G3&amp;$L$1&amp;H3&amp;$L$1&amp;I3&amp;$L$1</f>
+        <f t="shared" ref="K3:K8" si="0">$L$1&amp;B3&amp;$L$1&amp;C3&amp;$L$1&amp;D3&amp;$L$1&amp;E3&amp;$L$1&amp;F3&amp;$L$1&amp;G3&amp;$L$1&amp;H3&amp;$L$1&amp;I3&amp;$L$1</f>
         <v>|------------|------------|------------|------------|------------|------------|------------|------------|</v>
       </c>
     </row>
@@ -998,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
@@ -1008,11 +1047,11 @@
         <v>14</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|interface||class|**必填**||服务发现|服务接口名|1.0.0以上版本|</v>
+        <v>|interface||class|**必填**||服务发现|服务接口名|1.0.0+|</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
@@ -1024,7 +1063,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -1034,14 +1073,14 @@
         <v>18</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="K5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|ref||object|**必填**||服务发现|服务对象实现引用|1.0.0以上版本|</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="67.5" x14ac:dyDescent="0.15">
+        <v>|ref||object|**必填**||服务发现|服务对象实现引用|1.0.0+|</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1064,37 +1103,67 @@
         <v>23</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|version|version|string|可选|0.0.0|服务发现|服务版本，建议使用两位数字版本，如：1.0，通常在接口不兼容时版本号才需要升级|1.0.0以上版本|</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="81" x14ac:dyDescent="0.15">
+        <v>|version|version|string|可选|0.0.0|服务发现|服务版本，建议使用两位数字版本，如：1.0，通常在接口不兼容时版本号才需要升级|1.0.0+|</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>|rotocol||string|可选||配置关联|使用指定的协议暴露服务，在多协议时使用，值为&lt;dubbo:protocol&gt;的id属性，多个协议ID用逗号分隔|2.0.5以上版本|</v>
+        <v>|timeout|timeout|int|可选|1000|性能调优|远程服务调用超时时间(毫秒)|2.0.0+|</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>|protocol||string|可选||配置关联|使用指定的协议暴露服务，在多协议时使用，值为`&lt;dubbo:protocol&gt;`的id属性，多个协议ID用逗号分隔|2.0.5+|</v>
       </c>
     </row>
   </sheetData>
@@ -1192,21 +1261,21 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
@@ -1225,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -1350,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
@@ -1371,7 +1440,7 @@
     </row>
     <row r="4" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1381,16 +1450,16 @@
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1399,28 +1468,28 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1429,28 +1498,28 @@
     </row>
     <row r="6" spans="2:12" ht="178.5" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1459,10 +1528,10 @@
     </row>
     <row r="7" spans="2:12" ht="81" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -1471,16 +1540,16 @@
         <v>21</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1594,7 +1663,7 @@
     </row>
     <row r="4" spans="2:12" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1605,13 +1674,13 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1620,26 +1689,26 @@
     </row>
     <row r="5" spans="2:12" ht="54" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1648,10 +1717,10 @@
     </row>
     <row r="6" spans="2:12" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -1660,16 +1729,16 @@
         <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1761,19 +1830,19 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -1791,26 +1860,26 @@
     </row>
     <row r="4" spans="2:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
